--- a/config_debug/fish_ai_config.xlsx
+++ b/config_debug/fish_ai_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player_status|状态" sheetId="10" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="player_switch|切换条件" sheetId="8" r:id="rId4"/>
     <sheet name="other|其它条件" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
   <si>
     <t>index|索引</t>
   </si>
@@ -290,204 +290,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
+    <t>500,0.4,600,0.6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0.5,2,0.5,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1,0.001,"other",2,2,0.01,4,0.001,5,0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,6,0.001,7,0.01</t>
-    </r>
+    <t>600,0.4,800,0.6</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +409,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -645,9 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -926,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1458,41 +1262,6 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1505,7 +1274,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1810,12 +1579,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
+      <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2205,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2264,8 +2028,8 @@
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
+      <c r="D2" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>41</v>
@@ -2298,8 +2062,8 @@
       <c r="C3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
+      <c r="D3" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>46</v>
@@ -2595,27 +2359,12 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>74</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2625,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2637,7 +2386,7 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
     <col min="6" max="6" width="71" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
@@ -2951,11 +2700,6 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/config_debug/fish_ai_config.xlsx
+++ b/config_debug/fish_ai_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player_status|状态" sheetId="10" r:id="rId1"/>
@@ -18,14 +13,17 @@
     <sheet name="player_switch|切换条件" sheetId="8" r:id="rId4"/>
     <sheet name="other|其它条件" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="78">
   <si>
     <t>index|索引</t>
+  </si>
+  <si>
+    <t>|备注</t>
   </si>
   <si>
     <t>player_speed|不同状态使用的操控速度 速度id，概率</t>
@@ -84,7 +82,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -95,7 +92,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,7 +107,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -122,7 +117,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +124,12 @@
     </r>
   </si>
   <si>
+    <t>100,0.6,50,0.4</t>
+  </si>
+  <si>
+    <t>9,0.5,10,0.5</t>
+  </si>
+  <si>
     <t>3,0.5,4,0.5,</t>
   </si>
   <si>
@@ -148,12 +148,36 @@
     <t>8,0.5,9,0.5</t>
   </si>
   <si>
-    <t>9,0.5,10,0.5</t>
-  </si>
-  <si>
     <t>1,0.1,2,0.1,3,0.1,4,0.1,5,0.1,6,0.1,7,0.1,8,0.1,9,0.1,10,0.1</t>
   </si>
   <si>
+    <t>电磁炮状态</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>1,0.001,"other",2,2,0.01,4,0.001,5,0.1,6,0.001,7,0.9</t>
+  </si>
+  <si>
+    <t>贝壳状态</t>
+  </si>
+  <si>
+    <t>21,1</t>
+  </si>
+  <si>
+    <t>钻头弹状态</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>1,0.001,"other",2,2,0.01,4,0.001,5,0.01,6,0.9,7,0.01</t>
+  </si>
+  <si>
+    <t>刺穿弹状态</t>
+  </si>
+  <si>
     <t>status|状态</t>
   </si>
   <si>
@@ -187,37 +211,54 @@
     <t>180,0.4,280,0.6</t>
   </si>
   <si>
+    <t>500,0.4,600,0.6</t>
+  </si>
+  <si>
+    <t>0.1,0.4,0.12,0.6</t>
+  </si>
+  <si>
+    <t>1,0.4,0.12,0.4</t>
+  </si>
+  <si>
+    <t>20,0.4,30,0.4,40,0.2</t>
+  </si>
+  <si>
+    <t>150,0.4,100,0.6</t>
+  </si>
+  <si>
+    <t>600,0.4,800,0.6</t>
+  </si>
+  <si>
+    <t>0.1,0.4,0.5,0.6</t>
+  </si>
+  <si>
+    <t>1.5,0.4,2.12,0.4</t>
+  </si>
+  <si>
+    <t>30,0.4,55,0.4,60,0.2</t>
+  </si>
+  <si>
     <t>10,0.4,15,0.6</t>
   </si>
   <si>
-    <t>0.1,0.4,0.12,0.6</t>
-  </si>
-  <si>
-    <t>1,0.4,0.12,0.4</t>
-  </si>
-  <si>
-    <t>20,0.4,30,0.4,40,0.2</t>
-  </si>
-  <si>
-    <t>150,0.4,100,0.6</t>
-  </si>
-  <si>
     <t>20,0.4,25,0.6</t>
   </si>
   <si>
-    <t>0.1,0.4,0.5,0.6</t>
-  </si>
-  <si>
-    <t>1.5,0.4,2.12,0.4</t>
-  </si>
-  <si>
-    <t>30,0.4,55,0.4,60,0.2</t>
-  </si>
-  <si>
     <t>900,0.4,500,0.6</t>
   </si>
   <si>
-    <t>event|活动</t>
+    <t>event|活动触发活动会优先响应活动free_bullet = 1,--免费子弹
+    power_bullet = 2,--超级火力
+    crit_bullet = 3,--双倍奖励
+    quick_shoot = 4,--快速射击
+    shell_lottery = 5,--贝壳  --攻击贝壳
+    drill_bullet = 6,--钻头弹 --释放钻头弹
+    pierce_bullet = 7,--刺穿弹 --释放穿刺弹
+    time_free_power_bullet = 8,--限时免费超级火力
+    laser_bullet = 9,--电磁炮 --释放电磁炮
+    power2_bullet = 10,--超级火力2
+    power3_bullet = 11,--超级火力3
+    crit2_bullet = 12,--双倍奖励2</t>
   </si>
   <si>
     <t>fish|鱼num：数量rate：倍率dis:距离</t>
@@ -229,7 +270,54 @@
     <t>|条件，状态</t>
   </si>
   <si>
-    <t>1,1,2,2,3,1</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,1,2,2,3,1,4,1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5,12,6,13,7,14,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,9,11,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10,1,11,1,12,1</t>
+    </r>
   </si>
   <si>
     <t>"num",10,1,"num",20,2,"rate",5,1,"rate",6,2,"dis",6,1,"dis",10,2</t>
@@ -260,52 +348,20 @@
   </si>
   <si>
     <t>or</t>
-  </si>
-  <si>
-    <t>free_bullet = 1,
-    power_bullet = 2,
-    crit_bullet = 3,
-    quick_shoot = 4,
-    shell_lottery = 5,
-    drill_bullet = 6,
-    pierce_bullet = 7,
-    time_free_power_bullet = 8,
-    laser_bullet = 9,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,0.5,10,0.5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,0.6,50,0.4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.6,4,0.4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0.6,4,0.4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,0.4,600,0.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>600,0.4,800,0.6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,48 +373,179 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,8 +564,200 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -401,19 +780,261 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,7 +1046,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -435,6 +1056,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -444,29 +1071,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -724,30 +1389,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="47" customWidth="1"/>
-    <col min="11" max="11" width="43.5" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="1" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="47" customWidth="1"/>
+    <col min="12" max="12" width="43.5" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" customHeight="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +1446,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -789,18 +1456,16 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
-      <c r="T1" s="5"/>
+      <c r="T1" s="1"/>
       <c r="U1" s="5"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+      <c r="C2" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -814,87 +1479,87 @@
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>68</v>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="3"/>
+      <c r="L2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="6"/>
+      <c r="Q2" s="3"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X2" s="3"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
+      <c r="C3" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>69</v>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="6"/>
+      <c r="Q3" s="3"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X3" s="3"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -903,92 +1568,92 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="3"/>
+      <c r="K4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="6"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X4" s="3"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="C5" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="3"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -997,92 +1662,92 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="7"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -1091,92 +1756,92 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="7"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -1185,99 +1850,303 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="3"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="7"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="5" width="19.25" customWidth="1"/>
@@ -1294,15 +2163,15 @@
     <col min="18" max="21" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1318,7 +2187,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1344,7 +2213,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1370,7 +2239,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1396,7 +2265,7 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1422,7 +2291,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1448,7 +2317,7 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1474,7 +2343,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1500,7 +2369,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1526,7 +2395,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1552,7 +2421,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1578,7 +2447,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="2"/>
@@ -1597,7 +2466,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="2"/>
@@ -1616,7 +2485,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="2"/>
@@ -1635,7 +2504,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="2"/>
@@ -1654,7 +2523,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="2"/>
@@ -1665,15 +2534,15 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:18">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="2"/>
@@ -1692,7 +2561,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:18">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="2"/>
@@ -1711,7 +2580,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:18">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="2"/>
@@ -1730,7 +2599,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:18">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="7"/>
@@ -1738,10 +2607,10 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -1749,102 +2618,102 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:18">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="10"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:18">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:18">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:18">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:18">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="7"/>
@@ -1852,10 +2721,10 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -1863,7 +2732,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:18">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7"/>
@@ -1871,10 +2740,10 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -1882,7 +2751,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:18">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="7"/>
@@ -1901,7 +2770,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:18">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
@@ -1920,7 +2789,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:18">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7"/>
@@ -1939,7 +2808,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:18">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="7"/>
@@ -1959,431 +2828,448 @@
       <c r="R31" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.75" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="17.25" customWidth="1"/>
+    <col min="1" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="5"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="6"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>71</v>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="6"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
+      <c r="B4" t="s">
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
+      <c r="B6" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="6"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C10" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="44.125" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
@@ -2391,21 +3277,21 @@
     <col min="7" max="7" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="189" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2419,23 +3305,21 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="51" customHeight="1" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -2449,18 +3333,18 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
@@ -2477,18 +3361,18 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -2505,18 +3389,18 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
@@ -2533,18 +3417,18 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
@@ -2561,18 +3445,18 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
@@ -2589,18 +3473,18 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
@@ -2617,18 +3501,18 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
@@ -2645,18 +3529,18 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
@@ -2673,18 +3557,18 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
@@ -2702,39 +3586,40 @@
       <c r="R11" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="60.75" customHeight="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2749,12 +3634,12 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
@@ -2775,12 +3660,12 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>20</v>
@@ -2803,12 +3688,12 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2">
         <v>20</v>
@@ -2832,7 +3717,7 @@
       <c r="R4" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>